--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="270">
   <si>
     <t>Path</t>
   </si>
@@ -328,17 +328,14 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>measureParameterValues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-values}
+    <t>measureParameterValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
 </t>
   </si>
   <si>
-    <t>Measure parameter values used to generate the measure report.</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Measure parameter value used to generate the measure report</t>
   </si>
   <si>
     <t>MeasureReport.modifierExtension</t>
@@ -640,9 +637,6 @@
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | care-gap</t>
   </si>
   <si>
-    <t>The type of the population.</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -679,6 +673,9 @@
   </si>
   <si>
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | measure-population | measure-population-exclusion | measure-observation</t>
+  </si>
+  <si>
+    <t>The type of the population.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -698,7 +695,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="denominator-exclusion"/&gt;
+    &lt;code value="numerator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -709,7 +706,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="numerator"/&gt;
+    &lt;code value="denominator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1034,7 +1031,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2050,7 +2047,7 @@
         <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2124,11 +2121,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2150,16 +2147,16 @@
         <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>38</v>
@@ -2208,7 +2205,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2231,7 +2228,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2254,19 +2251,19 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>38</v>
@@ -2315,7 +2312,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2330,7 +2327,7 @@
         <v>59</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2364,13 +2361,13 @@
         <v>68</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2381,29 +2378,29 @@
         <v>38</v>
       </c>
       <c r="R13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="X13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>46</v>
@@ -2435,7 +2432,7 @@
         <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2469,13 +2466,13 @@
         <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2501,46 +2498,46 @@
         <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2548,7 +2545,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2571,13 +2568,13 @@
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2628,7 +2625,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>46</v>
@@ -2643,7 +2640,7 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2674,13 +2671,13 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2731,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2746,7 +2743,7 @@
         <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2777,13 +2774,13 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2834,7 +2831,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2849,7 +2846,7 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2880,13 +2877,13 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2937,7 +2934,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2952,7 +2949,7 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2960,7 +2957,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2983,13 +2980,13 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3040,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>46</v>
@@ -3063,7 +3060,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3086,16 +3083,16 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3121,14 +3118,14 @@
         <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>38</v>
       </c>
@@ -3145,7 +3142,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3168,7 +3165,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3191,13 +3188,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3248,7 +3245,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3257,7 +3254,7 @@
         <v>40</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>59</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3297,10 +3294,10 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3351,34 +3348,34 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3400,13 +3397,13 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3456,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3474,16 +3471,16 @@
         <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3505,16 +3502,16 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3563,7 +3560,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3586,7 +3583,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3609,13 +3606,13 @@
         <v>47</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3666,7 +3663,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3689,7 +3686,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3697,7 +3694,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>40</v>
@@ -3712,13 +3709,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3757,10 +3754,10 @@
         <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>38</v>
@@ -3769,7 +3766,7 @@
         <v>96</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3792,7 +3789,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3818,10 +3815,10 @@
         <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3872,34 +3869,34 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -3921,13 +3918,13 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3977,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3995,16 +3992,16 @@
         <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4026,16 +4023,16 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M29" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -4084,7 +4081,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4130,13 +4127,13 @@
         <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4163,11 +4160,11 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
@@ -4185,7 +4182,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4208,7 +4205,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4231,13 +4228,13 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4288,7 +4285,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4334,13 +4331,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4391,7 +4388,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4414,10 +4411,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>38</v>
@@ -4439,13 +4436,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4496,7 +4493,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4545,10 +4542,10 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4599,34 +4596,34 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4648,13 +4645,13 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4704,7 +4701,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4722,16 +4719,16 @@
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4753,16 +4750,16 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>38</v>
@@ -4811,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4834,7 +4831,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4857,13 +4854,13 @@
         <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4875,7 +4872,7 @@
         <v>38</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>38</v>
@@ -4890,11 +4887,11 @@
         <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>38</v>
@@ -4912,7 +4909,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4958,13 +4955,13 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5015,7 +5012,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5038,7 +5035,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5061,13 +5058,13 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5118,7 +5115,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5141,10 +5138,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
@@ -5166,13 +5163,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5223,7 +5220,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5246,7 +5243,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5272,10 +5269,10 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5326,34 +5323,34 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5375,13 +5372,13 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5431,7 +5428,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5449,16 +5446,16 @@
         <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5480,16 +5477,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>38</v>
@@ -5538,7 +5535,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5584,13 +5581,13 @@
         <v>47</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5602,7 +5599,7 @@
         <v>38</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>38</v>
@@ -5617,11 +5614,11 @@
         <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>38</v>
@@ -5639,7 +5636,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5685,13 +5682,13 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5742,7 +5739,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5765,7 +5762,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5788,13 +5785,13 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5845,7 +5842,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5868,10 +5865,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
@@ -5893,13 +5890,13 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5950,7 +5947,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5973,7 +5970,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5999,10 +5996,10 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6053,34 +6050,34 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6102,13 +6099,13 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6158,7 +6155,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6176,16 +6173,16 @@
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6207,16 +6204,16 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
@@ -6265,7 +6262,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6288,7 +6285,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6311,13 +6308,13 @@
         <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6329,7 +6326,7 @@
         <v>38</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>38</v>
@@ -6344,11 +6341,11 @@
         <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>38</v>
@@ -6366,7 +6363,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6389,7 +6386,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6412,13 +6409,13 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6469,7 +6466,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6492,7 +6489,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6515,13 +6512,13 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6572,7 +6569,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6618,13 +6615,13 @@
         <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6675,7 +6672,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6698,7 +6695,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6721,13 +6718,13 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6778,7 +6775,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -6801,7 +6798,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6827,10 +6824,10 @@
         <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6881,34 +6878,34 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -6930,13 +6927,13 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -6986,7 +6983,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7004,16 +7001,16 @@
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7035,16 +7032,16 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>38</v>
@@ -7093,7 +7090,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7116,7 +7113,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7139,13 +7136,13 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7196,7 +7193,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7242,13 +7239,13 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7299,7 +7296,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7348,10 +7345,10 @@
         <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7402,34 +7399,34 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7451,13 +7448,13 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7507,7 +7504,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7525,16 +7522,16 @@
         <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7556,16 +7553,16 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>38</v>
@@ -7614,7 +7611,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -7637,7 +7634,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7660,13 +7657,13 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7717,7 +7714,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7740,7 +7737,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7763,13 +7760,13 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7820,7 +7817,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -7843,7 +7840,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7869,10 +7866,10 @@
         <v>48</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7923,34 +7920,34 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -7972,13 +7969,13 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8028,7 +8025,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8046,16 +8043,16 @@
         <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8077,16 +8074,16 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>38</v>
@@ -8135,7 +8132,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8158,7 +8155,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8181,13 +8178,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8238,7 +8235,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>46</v>
@@ -8261,7 +8258,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8284,13 +8281,13 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8341,7 +8338,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>46</v>
@@ -8364,7 +8361,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8387,13 +8384,13 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8444,7 +8441,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8467,7 +8464,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8493,10 +8490,10 @@
         <v>48</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8547,34 +8544,34 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8596,13 +8593,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8652,7 +8649,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8670,16 +8667,16 @@
         <v>38</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8701,16 +8698,16 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -8759,7 +8756,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -8782,7 +8779,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8805,13 +8802,13 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8838,14 +8835,14 @@
         <v>38</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>38</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -8885,7 +8882,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8908,13 +8905,13 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8965,7 +8962,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -8988,7 +8985,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9011,13 +9008,13 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9068,7 +9065,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9091,7 +9088,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9114,13 +9111,13 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9171,7 +9168,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -9194,7 +9191,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9217,13 +9214,13 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9274,7 +9271,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1287,42 +1287,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.87890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.4375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.4453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="61.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,392 +262,396 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MeasureReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MeasureReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MeasureReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MeasureReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>measureParameterValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
+</t>
+  </si>
+  <si>
+    <t>Measure parameter value used to generate the measure report</t>
+  </si>
+  <si>
+    <t>MeasureReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>MeasureReport.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Additional identifier for the MeasureReport</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this MeasureReport when it is represented in other formats or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II data type - e.g. to identify this {{title}} outside of FHIR, where the logical URL is not possible to use.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MeasureReport.status</t>
+  </si>
+  <si>
+    <t>complete | pending | error</t>
+  </si>
+  <si>
+    <t>The MeasureReport status. No data will be available until the MeasureReport status is complete.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the measure report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-status|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MeasureReport.type</t>
+  </si>
+  <si>
+    <t>individual | subject-list | summary | data-collection</t>
+  </si>
+  <si>
+    <t>The type of measure report. This may be an individual report, which provides the score for the measure for an individual member of the population; a subject-listing, which returns the list of members that meet the various criteria in the measure; a summary report, which returns a population count for each of the criteria in the measure; or a data-collection, which enables the MeasureReport to be used to exchange the data-of-interest for a quality measure.</t>
+  </si>
+  <si>
+    <t>Data-collection reports are used only to communicate data-of-interest for a measure. They do not necessarily include all the data for a particular subject or population, but they may.</t>
+  </si>
+  <si>
+    <t>The type of the measure report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrp-1
+</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>MeasureReport.measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Measure)
+</t>
+  </si>
+  <si>
+    <t>What measure was calculated</t>
+  </si>
+  <si>
+    <t>A reference to the Measure that was calculated to produce this report.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>MeasureReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Location|Device|RelatedPerson|Group)
+</t>
+  </si>
+  <si>
+    <t>What individual(s) the report is for</t>
+  </si>
+  <si>
+    <t>Optional subject identifying the individual or individuals the report is for.</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>MeasureReport.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the report was generated</t>
+  </si>
+  <si>
+    <t>The date this measure report was generated.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who is reporting the data</t>
+  </si>
+  <si>
+    <t>The individual, location, or organization that is reporting the data.</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>MeasureReport.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>What period the report covers</t>
+  </si>
+  <si>
+    <t>The reporting period for which the report was calculated.</t>
+  </si>
+  <si>
+    <t>MeasureReport.improvementNotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>increase | decrease</t>
+  </si>
+  <si>
+    <t>Whether improvement in the measure is noted by an increase or decrease in the measure score.</t>
+  </si>
+  <si>
+    <t>This element is typically defined by the measure, but reproduced here to ensure the measure score can be interpreted. The element is labeled as a modifier because it changes the interpretation of the reported measure score.</t>
+  </si>
+  <si>
+    <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
+  </si>
+  <si>
+    <t>MeasureReport.group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Measure results for each group</t>
+  </si>
+  <si>
+    <t>The results of the calculation, one for each population group in the measure.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MeasureReport.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MeasureReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MeasureReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MeasureReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>measureParameterValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
-</t>
-  </si>
-  <si>
-    <t>Measure parameter value used to generate the measure report</t>
-  </si>
-  <si>
-    <t>MeasureReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>MeasureReport.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the MeasureReport</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this MeasureReport when it is represented in other formats or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II data type - e.g. to identify this {{title}} outside of FHIR, where the logical URL is not possible to use.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>MeasureReport.status</t>
-  </si>
-  <si>
-    <t>complete | pending | error</t>
-  </si>
-  <si>
-    <t>The MeasureReport status. No data will be available until the MeasureReport status is complete.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the measure report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-status|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MeasureReport.type</t>
-  </si>
-  <si>
-    <t>individual | subject-list | summary | data-collection</t>
-  </si>
-  <si>
-    <t>The type of measure report. This may be an individual report, which provides the score for the measure for an individual member of the population; a subject-listing, which returns the list of members that meet the various criteria in the measure; a summary report, which returns a population count for each of the criteria in the measure; or a data-collection, which enables the MeasureReport to be used to exchange the data-of-interest for a quality measure.</t>
-  </si>
-  <si>
-    <t>Data-collection reports are used only to communicate data-of-interest for a measure. They do not necessarily include all the data for a particular subject or population, but they may.</t>
-  </si>
-  <si>
-    <t>The type of the measure report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrp-1
-</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>MeasureReport.measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Measure)
-</t>
-  </si>
-  <si>
-    <t>What measure was calculated</t>
-  </si>
-  <si>
-    <t>A reference to the Measure that was calculated to produce this report.</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>MeasureReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Location|Device|RelatedPerson|Group)
-</t>
-  </si>
-  <si>
-    <t>What individual(s) the report is for</t>
-  </si>
-  <si>
-    <t>Optional subject identifying the individual or individuals the report is for.</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>MeasureReport.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the report was generated</t>
-  </si>
-  <si>
-    <t>The date this measure report was generated.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who is reporting the data</t>
-  </si>
-  <si>
-    <t>The individual, location, or organization that is reporting the data.</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>MeasureReport.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>What period the report covers</t>
-  </si>
-  <si>
-    <t>The reporting period for which the report was calculated.</t>
-  </si>
-  <si>
-    <t>MeasureReport.improvementNotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>increase | decrease</t>
-  </si>
-  <si>
-    <t>Whether improvement in the measure is noted by an increase or decrease in the measure score.</t>
-  </si>
-  <si>
-    <t>This element is typically defined by the measure, but reproduced here to ensure the measure score can be interpreted. The element is labeled as a modifier because it changes the interpretation of the reported measure score.</t>
-  </si>
-  <si>
-    <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
-  </si>
-  <si>
-    <t>MeasureReport.group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Measure results for each group</t>
-  </si>
-  <si>
-    <t>The results of the calculation, one for each population group in the measure.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3547,13 +3551,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3604,7 +3608,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3622,12 +3626,12 @@
         <v>72</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3653,10 +3657,10 @@
         <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>140</v>
@@ -3709,7 +3713,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3727,16 +3731,16 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3758,10 +3762,10 @@
         <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>140</v>
@@ -3816,7 +3820,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3839,7 +3843,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3865,10 +3869,10 @@
         <v>192</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3919,7 +3923,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3942,7 +3946,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3950,7 +3954,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>74</v>
@@ -3968,10 +3972,10 @@
         <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4010,10 +4014,10 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
@@ -4022,7 +4026,7 @@
         <v>130</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4068,13 +4072,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4125,7 +4129,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4143,12 +4147,12 @@
         <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4174,10 +4178,10 @@
         <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>140</v>
@@ -4230,7 +4234,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4248,16 +4252,16 @@
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4279,10 +4283,10 @@
         <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>140</v>
@@ -4337,7 +4341,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4360,7 +4364,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4386,10 +4390,10 @@
         <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4416,11 +4420,11 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -4438,7 +4442,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4461,7 +4465,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4484,13 +4488,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4541,7 +4545,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4564,7 +4568,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4587,13 +4591,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4644,7 +4648,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4667,10 +4671,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
@@ -4695,10 +4699,10 @@
         <v>199</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4749,7 +4753,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4772,7 +4776,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4795,13 +4799,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4852,7 +4856,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -4870,12 +4874,12 @@
         <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4901,10 +4905,10 @@
         <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -4957,7 +4961,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4975,16 +4979,16 @@
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5006,10 +5010,10 @@
         <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>140</v>
@@ -5064,7 +5068,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5087,7 +5091,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5113,10 +5117,10 @@
         <v>192</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5128,7 +5132,7 @@
         <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>72</v>
@@ -5143,13 +5147,13 @@
         <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -5167,7 +5171,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5190,7 +5194,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5213,13 +5217,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5270,7 +5274,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5293,7 +5297,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5316,13 +5320,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5373,7 +5377,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5396,10 +5400,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>72</v>
@@ -5424,10 +5428,10 @@
         <v>199</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5478,7 +5482,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5501,7 +5505,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5524,13 +5528,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5581,7 +5585,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -5599,12 +5603,12 @@
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5630,10 +5634,10 @@
         <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>140</v>
@@ -5686,7 +5690,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5704,16 +5708,16 @@
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5735,10 +5739,10 @@
         <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>140</v>
@@ -5793,7 +5797,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5816,7 +5820,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5842,10 +5846,10 @@
         <v>192</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5857,7 +5861,7 @@
         <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>72</v>
@@ -5872,13 +5876,13 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>72</v>
@@ -5896,7 +5900,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -5919,7 +5923,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5942,13 +5946,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5999,7 +6003,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6045,13 +6049,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6102,7 +6106,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6125,10 +6129,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
@@ -6153,10 +6157,10 @@
         <v>199</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6207,7 +6211,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6230,7 +6234,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6253,13 +6257,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6310,7 +6314,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6328,12 +6332,12 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6359,10 +6363,10 @@
         <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>140</v>
@@ -6415,7 +6419,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6433,16 +6437,16 @@
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6464,10 +6468,10 @@
         <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>140</v>
@@ -6522,7 +6526,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6545,7 +6549,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6571,10 +6575,10 @@
         <v>192</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6586,7 +6590,7 @@
         <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>72</v>
@@ -6601,13 +6605,13 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
@@ -6625,7 +6629,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6648,7 +6652,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6671,13 +6675,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6728,7 +6732,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -6751,7 +6755,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6774,13 +6778,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6831,7 +6835,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -6854,10 +6858,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>72</v>
@@ -6882,10 +6886,10 @@
         <v>199</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6936,7 +6940,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -6959,7 +6963,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6982,13 +6986,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7039,7 +7043,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7057,12 +7061,12 @@
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7088,10 +7092,10 @@
         <v>126</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>140</v>
@@ -7144,7 +7148,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7162,16 +7166,16 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7193,10 +7197,10 @@
         <v>126</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>140</v>
@@ -7251,7 +7255,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7274,7 +7278,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7300,10 +7304,10 @@
         <v>192</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7315,7 +7319,7 @@
         <v>72</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>72</v>
@@ -7330,13 +7334,13 @@
         <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
@@ -7354,7 +7358,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7377,7 +7381,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7400,13 +7404,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7457,7 +7461,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7480,7 +7484,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7503,13 +7507,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7560,7 +7564,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7583,7 +7587,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7606,13 +7610,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7663,7 +7667,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7686,7 +7690,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7712,10 +7716,10 @@
         <v>199</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7766,7 +7770,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7789,7 +7793,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7812,13 +7816,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7869,7 +7873,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -7887,12 +7891,12 @@
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7918,10 +7922,10 @@
         <v>126</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>140</v>
@@ -7974,7 +7978,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -7992,16 +7996,16 @@
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8023,10 +8027,10 @@
         <v>126</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>140</v>
@@ -8081,7 +8085,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8104,7 +8108,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8130,10 +8134,10 @@
         <v>192</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8184,7 +8188,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8207,7 +8211,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8233,10 +8237,10 @@
         <v>199</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8287,7 +8291,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8310,7 +8314,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8333,13 +8337,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8390,7 +8394,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -8408,12 +8412,12 @@
         <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8439,10 +8443,10 @@
         <v>126</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>140</v>
@@ -8495,7 +8499,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8513,16 +8517,16 @@
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>126</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>140</v>
@@ -8602,7 +8606,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -8625,7 +8629,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8651,10 +8655,10 @@
         <v>192</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8705,7 +8709,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -8728,7 +8732,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8754,10 +8758,10 @@
         <v>199</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8808,7 +8812,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -8831,7 +8835,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8854,13 +8858,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8911,7 +8915,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -8929,12 +8933,12 @@
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8960,10 +8964,10 @@
         <v>126</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -9016,7 +9020,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9034,16 +9038,16 @@
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9065,10 +9069,10 @@
         <v>126</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>140</v>
@@ -9123,7 +9127,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9146,7 +9150,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9172,10 +9176,10 @@
         <v>192</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9226,7 +9230,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -9249,7 +9253,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9275,10 +9279,10 @@
         <v>192</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9329,7 +9333,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -9352,7 +9356,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9378,10 +9382,10 @@
         <v>199</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9432,7 +9436,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9455,7 +9459,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9478,13 +9482,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9535,7 +9539,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -9553,12 +9557,12 @@
         <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9584,10 +9588,10 @@
         <v>126</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>140</v>
@@ -9640,7 +9644,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -9658,16 +9662,16 @@
         <v>72</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -9689,10 +9693,10 @@
         <v>126</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>140</v>
@@ -9747,7 +9751,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9770,7 +9774,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9796,10 +9800,10 @@
         <v>192</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9826,13 +9830,13 @@
         <v>72</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>72</v>
@@ -9850,7 +9854,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -9873,7 +9877,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9896,13 +9900,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9953,7 +9957,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -9976,7 +9980,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9999,13 +10003,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10056,7 +10060,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10079,7 +10083,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10102,13 +10106,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10159,7 +10163,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -10182,7 +10186,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10205,13 +10209,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10262,7 +10266,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-quality-measure-report.xlsx
+++ b/StructureDefinition-quality-measure-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/quality-measure-report</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/quality-measure-report</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>The MeasureReport resource contains the results of the calculation of a measure; and optionally a reference to the resources involved in that calculation.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -281,7 +277,7 @@
     <t>MeasureReport.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -431,7 +427,7 @@
     <t>measureParameterValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter-value}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-parameter-value}
 </t>
   </si>
   <si>
@@ -744,7 +740,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/quality-measure-population-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/quality-measure-population-type</t>
   </si>
   <si>
     <t>MeasureReport.group.population.count</t>
@@ -823,7 +819,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/measure-population-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/measure-population-type"/&gt;
     &lt;code value="care-gap"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1314,7 +1310,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
@@ -1536,18 +1532,18 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1558,28 +1554,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1629,13 +1625,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1652,7 +1648,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1663,7 +1659,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1675,13 +1671,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1732,30 +1728,30 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1766,28 +1762,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1837,19 +1833,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1860,7 +1856,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1871,7 +1867,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -1883,16 +1879,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1918,43 +1914,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -1965,18 +1961,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1988,16 +1984,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2047,34 +2043,34 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2093,16 +2089,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2152,7 +2148,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2170,12 +2166,12 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2198,13 +2194,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2243,17 +2239,17 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2265,7 +2261,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2276,10 +2272,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2301,13 +2297,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2358,7 +2354,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2367,10 +2363,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2381,11 +2377,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2398,25 +2394,25 @@
         <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -2465,7 +2461,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2477,18 +2473,18 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2508,22 +2504,22 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -2572,7 +2568,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2584,10 +2580,10 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -2595,7 +2591,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2603,31 +2599,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2638,61 +2634,61 @@
         <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="X13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>72</v>
@@ -2700,7 +2696,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2708,31 +2704,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2758,46 +2754,46 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
+      <c r="AI14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2813,28 +2809,28 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2885,22 +2881,22 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -2908,7 +2904,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2916,28 +2912,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2988,22 +2984,22 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3011,7 +3007,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3022,25 +3018,25 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3091,22 +3087,22 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3114,7 +3110,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3125,25 +3121,25 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3194,22 +3190,22 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3217,7 +3213,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3225,28 +3221,28 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3297,19 +3293,19 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>72</v>
@@ -3320,7 +3316,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3331,28 +3327,28 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3378,14 +3374,14 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>72</v>
       </c>
@@ -3402,19 +3398,19 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3425,7 +3421,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3433,10 +3429,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3448,13 +3444,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3505,7 +3501,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3514,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>72</v>
@@ -3528,7 +3524,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3539,7 +3535,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3551,13 +3547,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3608,34 +3604,34 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3654,16 +3650,16 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3713,7 +3709,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3725,22 +3721,22 @@
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3753,25 +3749,25 @@
         <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -3820,7 +3816,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3832,18 +3828,18 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3854,25 +3850,25 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3923,19 +3919,19 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>72</v>
@@ -3946,7 +3942,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3954,7 +3950,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>74</v>
@@ -3969,13 +3965,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4014,19 +4010,19 @@
         <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AB26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AB26" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AC26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4038,7 +4034,7 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>72</v>
@@ -4049,7 +4045,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4060,7 +4056,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4072,13 +4068,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4129,34 +4125,34 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4175,16 +4171,16 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4234,7 +4230,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4246,22 +4242,22 @@
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4274,25 +4270,25 @@
         <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -4341,7 +4337,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4353,18 +4349,18 @@
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4375,25 +4371,25 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4420,11 +4416,11 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -4442,19 +4438,19 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -4465,7 +4461,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4476,7 +4472,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -4488,13 +4484,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4545,19 +4541,19 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>72</v>
@@ -4568,7 +4564,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4579,7 +4575,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -4591,13 +4587,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4648,19 +4644,19 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
@@ -4671,20 +4667,20 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4696,13 +4692,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4753,7 +4749,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4765,7 +4761,7 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
@@ -4776,7 +4772,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4787,7 +4783,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4799,13 +4795,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4856,34 +4852,34 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4902,16 +4898,16 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4961,7 +4957,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4973,22 +4969,22 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5001,25 +4997,25 @@
         <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>72</v>
@@ -5068,7 +5064,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5080,18 +5076,18 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5099,28 +5095,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5132,29 +5128,29 @@
         <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
       </c>
@@ -5171,19 +5167,19 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
@@ -5194,7 +5190,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5205,7 +5201,7 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -5217,13 +5213,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5274,19 +5270,19 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5308,7 +5304,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -5320,13 +5316,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5377,19 +5373,19 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
@@ -5400,20 +5396,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -5425,13 +5421,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5482,7 +5478,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5494,7 +5490,7 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
@@ -5505,7 +5501,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5516,7 +5512,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -5528,13 +5524,13 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5585,34 +5581,34 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5631,16 +5627,16 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5690,7 +5686,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5702,22 +5698,22 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5730,25 +5726,25 @@
         <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M43" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -5797,7 +5793,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5809,18 +5805,18 @@
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5828,28 +5824,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5861,7 +5857,7 @@
         <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>72</v>
@@ -5876,14 +5872,14 @@
         <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>72</v>
       </c>
@@ -5900,19 +5896,19 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
@@ -5923,7 +5919,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5934,7 +5930,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -5946,13 +5942,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6003,19 +5999,19 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
@@ -6026,7 +6022,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6037,7 +6033,7 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -6049,13 +6045,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6106,19 +6102,19 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -6129,20 +6125,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6154,13 +6150,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6211,7 +6207,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6223,7 +6219,7 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -6234,7 +6230,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6245,7 +6241,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6257,13 +6253,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6314,34 +6310,34 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6360,16 +6356,16 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6419,7 +6415,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6431,22 +6427,22 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6459,25 +6455,25 @@
         <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -6526,7 +6522,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6538,18 +6534,18 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6557,28 +6553,28 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6590,7 +6586,7 @@
         <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>72</v>
@@ -6605,14 +6601,14 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
       </c>
@@ -6629,19 +6625,19 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
@@ -6652,7 +6648,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6663,7 +6659,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -6675,13 +6671,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6732,19 +6728,19 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
@@ -6755,7 +6751,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6766,7 +6762,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -6778,13 +6774,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6835,19 +6831,19 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
@@ -6858,10 +6854,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>72</v>
@@ -6883,13 +6879,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6940,7 +6936,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -6952,7 +6948,7 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
@@ -6963,7 +6959,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6974,7 +6970,7 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -6986,13 +6982,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7043,34 +7039,34 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7089,16 +7085,16 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7148,7 +7144,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7160,22 +7156,22 @@
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7188,25 +7184,25 @@
         <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -7255,7 +7251,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7267,18 +7263,18 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7286,28 +7282,28 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7319,7 +7315,7 @@
         <v>72</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>72</v>
@@ -7334,14 +7330,14 @@
         <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
       </c>
@@ -7358,19 +7354,19 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
@@ -7381,7 +7377,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7392,7 +7388,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -7404,13 +7400,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7461,19 +7457,19 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
@@ -7484,7 +7480,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7495,7 +7491,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -7507,13 +7503,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7564,19 +7560,19 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
@@ -7587,7 +7583,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7598,25 +7594,25 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7667,19 +7663,19 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
@@ -7690,7 +7686,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7713,13 +7709,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7770,7 +7766,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7782,7 +7778,7 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
@@ -7793,7 +7789,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7804,7 +7800,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -7816,13 +7812,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7873,34 +7869,34 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -7919,16 +7915,16 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -7978,7 +7974,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -7990,22 +7986,22 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8018,25 +8014,25 @@
         <v>72</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M65" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>72</v>
@@ -8085,7 +8081,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8097,18 +8093,18 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8131,13 +8127,13 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8188,7 +8184,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8200,7 +8196,7 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
@@ -8211,7 +8207,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8234,13 +8230,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8291,7 +8287,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8303,7 +8299,7 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
@@ -8314,7 +8310,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8325,7 +8321,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -8337,13 +8333,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8394,34 +8390,34 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8440,16 +8436,16 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8499,7 +8495,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8511,22 +8507,22 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8539,25 +8535,25 @@
         <v>72</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>72</v>
@@ -8606,7 +8602,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -8618,18 +8614,18 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8640,7 +8636,7 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>72</v>
@@ -8652,13 +8648,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8709,19 +8705,19 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
@@ -8732,7 +8728,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8755,13 +8751,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8812,7 +8808,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -8824,7 +8820,7 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
@@ -8835,7 +8831,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8846,7 +8842,7 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -8858,13 +8854,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8915,34 +8911,34 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8961,16 +8957,16 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9020,7 +9016,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9032,22 +9028,22 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9060,25 +9056,25 @@
         <v>72</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M75" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>72</v>
@@ -9127,7 +9123,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9139,18 +9135,18 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9158,10 +9154,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -9173,13 +9169,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9230,19 +9226,19 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>72</v>
@@ -9253,7 +9249,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9261,10 +9257,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -9276,13 +9272,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9333,19 +9329,19 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>72</v>
@@ -9356,7 +9352,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9379,13 +9375,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9436,7 +9432,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9448,7 +9444,7 @@
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>72</v>
@@ -9459,7 +9455,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9470,7 +9466,7 @@
         <v>73</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>72</v>
@@ -9482,13 +9478,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9539,34 +9535,34 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -9585,16 +9581,16 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9644,7 +9640,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -9656,22 +9652,22 @@
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -9684,25 +9680,25 @@
         <v>72</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>72</v>
@@ -9751,7 +9747,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9763,18 +9759,18 @@
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9785,7 +9781,7 @@
         <v>73</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>72</v>
@@ -9797,13 +9793,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9830,14 +9826,14 @@
         <v>72</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>72</v>
       </c>
@@ -9854,19 +9850,19 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>72</v>
@@ -9877,7 +9873,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9888,7 +9884,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>72</v>
@@ -9900,13 +9896,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K83" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="L83" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9957,19 +9953,19 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>72</v>
@@ -9980,7 +9976,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9991,7 +9987,7 @@
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
@@ -10003,13 +9999,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="L84" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10060,19 +10056,19 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>72</v>
@@ -10083,7 +10079,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10094,7 +10090,7 @@
         <v>73</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>72</v>
@@ -10106,13 +10102,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10163,19 +10159,19 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>72</v>
@@ -10186,7 +10182,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10209,13 +10205,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10266,7 +10262,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -10278,7 +10274,7 @@
         <v>72</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>72</v>
